--- a/20_orga/zapotrzebowanie.xlsx
+++ b/20_orga/zapotrzebowanie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpuchals\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robocap\security-stream\20_orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F406946D-C632-4D6C-9B66-AD2378E3CC80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440493E2-E333-46A2-9B80-AB9BF1EB20BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="-108" windowWidth="19476" windowHeight="12816" xr2:uid="{995310F6-0717-4BC4-A253-AF43308FBEAE}"/>
+    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{995310F6-0717-4BC4-A253-AF43308FBEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inwentaryzacja" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Miejsce</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Już zamówione</t>
+  </si>
+  <si>
+    <t>teraz</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +570,7 @@
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,6 +645,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -650,6 +656,9 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -696,6 +705,9 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
@@ -704,6 +716,9 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -726,11 +741,17 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -772,6 +793,9 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,6 +856,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A82B799E67DEF40ACBD3DB52797B47D" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a329d7b0e95d4430cca23e5a1c655489">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c6477337-cb95-4111-a0db-9386c0b5f0a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62f5c527142d0f3481286378baf99eaf" ns3:_="">
     <xsd:import namespace="c6477337-cb95-4111-a0db-9386c0b5f0a9"/>
@@ -985,15 +1018,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F92C119-A66B-487D-8FD6-5441DC21083D}">
   <ds:schemaRefs>
@@ -1011,6 +1035,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C6AF11-B0E3-405B-8CC6-1F524BAD10B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6824B189-B566-49A5-AAF0-C4D0CB7B6169}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1026,12 +1058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C6AF11-B0E3-405B-8CC6-1F524BAD10B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/20_orga/zapotrzebowanie.xlsx
+++ b/20_orga/zapotrzebowanie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robocap\security-stream\20_orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440493E2-E333-46A2-9B80-AB9BF1EB20BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61469F3D-9014-4E39-965F-736BB5E4776B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{995310F6-0717-4BC4-A253-AF43308FBEAE}"/>
+    <workbookView xWindow="792" yWindow="-108" windowWidth="19476" windowHeight="12816" xr2:uid="{995310F6-0717-4BC4-A253-AF43308FBEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Inwentaryzacja" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Miejsce</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Opaski Tyvek</t>
   </si>
   <si>
-    <t>200?</t>
-  </si>
-  <si>
     <t>Komentarz</t>
   </si>
   <si>
@@ -168,6 +165,24 @@
   </si>
   <si>
     <t>teraz</t>
+  </si>
+  <si>
+    <t>Naklejki</t>
+  </si>
+  <si>
+    <t>Arek</t>
+  </si>
+  <si>
+    <t>Koszulki</t>
+  </si>
+  <si>
+    <t>Michał Z.</t>
+  </si>
+  <si>
+    <t>Taśma klejąca</t>
+  </si>
+  <si>
+    <t>Raspberry</t>
   </si>
 </sst>
 </file>
@@ -246,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{881AFEC1-5F74-4D0B-9543-99CD25BE55B5}" name="Table1" displayName="Table1" ref="A1:F26" totalsRowShown="0">
-  <autoFilter ref="A1:F26" xr:uid="{A264A77A-BEE9-43EC-B80C-8E793755589F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{881AFEC1-5F74-4D0B-9543-99CD25BE55B5}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{A264A77A-BEE9-43EC-B80C-8E793755589F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1BFE90E7-D528-4C89-9083-3300C3FD21A9}" name="Miejsce"/>
     <tableColumn id="2" xr3:uid="{36B013E4-F7B4-445A-B8F3-EE50088493C6}" name="Sprzęt"/>
@@ -557,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8243D60-01B2-4338-BF1D-284CAC15233D}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -610,197 +625,244 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>300</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>43738</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>300</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -824,12 +886,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
